--- a/Planilhas no python/notas.xlsx
+++ b/Planilhas no python/notas.xlsx
@@ -98,10 +98,10 @@
     <t xml:space="preserve">BD</t>
   </si>
   <si>
+    <t xml:space="preserve">não atualizaado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">não atualizado</t>
   </si>
   <si>
     <t xml:space="preserve">GS1</t>
@@ -154,12 +154,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1CFFF"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,7 +225,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,7 +262,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -264,7 +284,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFA1CFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -883,32 +903,32 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -937,7 +957,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>9.5</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,16 +979,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>8.8</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,10 +1030,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>8.5</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,11 +1075,9 @@
         <v>13</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -1083,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
